--- a/mbs-perturbation/chain/MLP/chain-mlp-results.xlsx
+++ b/mbs-perturbation/chain/MLP/chain-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4776334776334776</v>
+        <v>0.8441558441558441</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1681159420289855</v>
+        <v>0.9347826086956522</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5550724637681159</v>
+        <v>0.02318840579710143</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5971014492753622</v>
+        <v>0.04057971014492756</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0.025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5595846665411882</v>
+        <v>0.5641934876717485</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/MLP/chain-mlp-results.xlsx
+++ b/mbs-perturbation/chain/MLP/chain-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.125</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2113821138211382</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8441558441558441</v>
+        <v>0.8781144781144782</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9882154882154881</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9898477157360406</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02318840579710143</v>
+        <v>0.9711399711399711</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04057971014492756</v>
+        <v>0.7261904761904763</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.025</v>
+        <v>0.6005446623093682</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.5419047619047619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04210526315789474</v>
+        <v>0.4529648285613291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5641934876717485</v>
+        <v>0.9107016258792908</v>
       </c>
     </row>
   </sheetData>
